--- a/chat app 2/online_dataimporter/Excel.xlsx
+++ b/chat app 2/online_dataimporter/Excel.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Munka1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -385,10 +385,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -410,35 +410,252 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>43edg52</t>
+          <t>Sanguinaria canadensis</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Aquilegia canadensis</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>Caltha palustris</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pingvin</t>
+          <t>Caltha palustris</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>43edg52</t>
+          <t>Dicentra cucullaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Asarum canadense</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hepatica americana</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hepatica americana</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Arisaema triphyllum</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Podophyllum peltatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Phlox divaricata</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Phlox divaricata</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Claytonia Virginica</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Trillium grandiflorum</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Trillium grandiflorum</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Erythronium americanum</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Erythronium americanum</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Erythronium americanum</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Anemone blanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Anemone blanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Monarda didyma</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Monarda didyma</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Rudbeckia hirta</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ranunculus</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ranunculus</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Asclepias tuberosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Potentilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Oenothera</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Gentiana</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Gentiana</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Polemonium caeruleum</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Polemonium caeruleum</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Eschscholzia californica</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Dodecatheon</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Cimicifuga</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Lobelia cardinalis</t>
         </is>
       </c>
     </row>

--- a/chat app 2/online_dataimporter/Excel.xlsx
+++ b/chat app 2/online_dataimporter/Excel.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Wrblr\chat app 2\online_dataimporter\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BFD265-D24A-45A4-B752-26680AA79FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Munka1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,20 +380,1209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="A1" sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="12" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>COMMON</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>BOTANICAL</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ZONE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>LIGHT</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>PRICE</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>AVAILABILITY</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bloodroot</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mostly Shady</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>$2.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>031599</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Columbine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>pingvin</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mostly Shady</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>$9.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>030699</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Marsh Marigold</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>43edg52</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mostly Sunny</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$6.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>051799</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cowslip</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caltha palustris</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mostly Shady</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$9.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>030699</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dutchman's-Breeches</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dicentra cucullaria</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mostly Shady</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$6.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>012099</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ginger, Wild</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Asarum canadense</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mostly Shady</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>$9.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>041899</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hepatica</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hepatica americana</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mostly Shady</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>$4.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>012699</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Liverleaf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hepatica americana</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mostly Shady</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>$3.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jack-In-The-Pulpit</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Arisaema triphyllum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mostly Shady</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>$3.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>020199</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mayapple</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Podophyllum peltatum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mostly Shady</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>$2.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>060599</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Phlox, Woodland</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Phlox divaricata</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sun or Shade</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>$2.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>012299</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Phlox, Blue</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Phlox divaricata</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sun or Shade</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>$5.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>021699</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Spring-Beauty</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Claytonia Virginica</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mostly Shady</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$6.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>020199</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Trillium</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Trillium grandiflorum</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sun or Shade</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>$3.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>042999</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Wake Robin</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Trillium grandiflorum</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sun or Shade</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>$3.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>022199</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Violet, Dog-Tooth</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Erythronium americanum</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Shade</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>$9.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>020199</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Trout Lily</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Erythronium americanum</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Shade</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>$6.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>032499</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Adder's-Tongue</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Erythronium americanum</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Shade</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>$9.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>041399</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Anemone</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Anemone blanda</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mostly Shady</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>$8.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>122698</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Grecian Windflower</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Anemone blanda</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mostly Shady</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>$9.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>071099</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Bee Balm</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Monarda didyma</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Shade</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>$4.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>050399</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Bergamot</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Monarda didyma</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Shade</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>$7.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>042799</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Black-Eyed Susan</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Rudbeckia hirta</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>$9.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>061899</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Buttercup</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Ranunculus</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Shade</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>$2.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>061099</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Crowfoot</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Ranunculus</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Shade</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>$9.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>040399</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Butterfly Weed</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Asclepias tuberosa</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>$2.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>063099</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Cinquefoil</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Potentilla</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Shade</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>$7.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>052599</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Primrose</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Oenothera</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>$6.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>013099</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Gentian</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Gentiana</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Sun or Shade</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>$7.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>051899</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Blue Gentian</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Gentiana</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Sun or Shade</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>$8.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>050299</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jacob's Ladder</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Polemonium caeruleum</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Shade</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>$9.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>022199</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Greek Valerian</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Polemonium caeruleum</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Shade</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>$4.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>071499</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>California Poppy</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Eschscholzia californica</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>$7.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>032799</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Shooting Star</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Dodecatheon</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Mostly Shady</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>$8.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>051399</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Snakeroot</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cimicifuga</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Shade</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>$5.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>071199</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Cardinal Flower</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Lobelia cardinalis</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Shade</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>$3.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>022299</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>